--- a/messy_data_colab.xlsx
+++ b/messy_data_colab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romul\Desktop\Trabalho\r-intermediario-mquinho2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C6EF8-76BB-4C49-BDBB-4CDA2E80DF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A8DBC-C779-4BF8-B600-C01E0996D503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B9C59739-E13E-4F06-8840-8E1FC87EDA5E}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ED8D05-A1E7-47E2-938A-417AB0A7FE91}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
